--- a/resources/TestData.xlsx
+++ b/resources/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20130" windowHeight="7050"/>
+    <workbookView windowWidth="20490" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1262,7 +1262,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
